--- a/文档/Year B 2020-2021.xlsx
+++ b/文档/Year B 2020-2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\教会公众号\Church\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83090A-D9FE-4B98-ABC6-1B4038871A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8725BBC-8DDD-4080-BF51-62FAFD11A50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
